--- a/iq/spec_2g.xlsx
+++ b/iq/spec_2g.xlsx
@@ -2560,8 +2560,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10">
         <v>18</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10">
         <v>18</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10">
         <v>18</v>
@@ -2788,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10">
         <v>18</v>
